--- a/output/3_Regression/c19/c19table_mape.xlsx
+++ b/output/3_Regression/c19/c19table_mape.xlsx
@@ -556,7 +556,7 @@
         <v>0.07653781803393152</v>
       </c>
       <c r="G7">
-        <v>1.425054270831624</v>
+        <v>1.425054270831623</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -602,7 +602,7 @@
         <v>0.09535040813742517</v>
       </c>
       <c r="G9">
-        <v>1.262484547349273</v>
+        <v>1.262484547349272</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>0.1067265235832207</v>
       </c>
       <c r="G10">
-        <v>1.191872108069206</v>
+        <v>1.191872108069205</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -671,7 +671,7 @@
         <v>0.1261585603897909</v>
       </c>
       <c r="G12">
-        <v>1.077044997528328</v>
+        <v>1.077044997528327</v>
       </c>
     </row>
     <row r="13" spans="1:7">
